--- a/________PalangPanya/palangpanya_20170327-V2.xlsx
+++ b/________PalangPanya/palangpanya_20170327-V2.xlsx
@@ -394,36 +394,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -435,6 +405,36 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +732,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,45 +747,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="29.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="23.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -800,10 +800,10 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -970,28 +970,28 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="38" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="34">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="24">
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="27">
         <v>5000</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="27">
         <f>SUM(E17*F17)</f>
         <v>5000</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1065,11 +1065,11 @@
         <v>5000</v>
       </c>
       <c r="F22" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="19">
         <f>SUM(E22*F22)</f>
-        <v>45000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.75" customHeight="1">
@@ -1134,22 +1134,22 @@
     </row>
     <row r="29" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="17"/>
       <c r="E29" s="20"/>
       <c r="F29" s="17"/>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="24" thickBot="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="10"/>
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1" ht="28.5" customHeight="1">
@@ -1162,11 +1162,11 @@
       <c r="D35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="37" spans="1:7" ht="26.25" customHeight="1">
       <c r="C37" t="s">
